--- a/Data/MHV-1_Trial-1_Stage-3_Encoded_KWALDSTEIN_202010042110.xlsx
+++ b/Data/MHV-1_Trial-1_Stage-3_Encoded_KWALDSTEIN_202010042110.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D664DAD-BEC6-430F-A85C-96CAD4A5B30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E9C493-1C09-4201-A6F2-6F4BD69D530E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="4695" windowWidth="21600" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="2280" windowWidth="21600" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +122,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -557,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -573,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -590,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -606,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -624,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -638,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -655,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -685,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -701,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -733,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -747,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -764,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -790,11 +796,13 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -802,49 +810,64 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
       <c r="F34" s="5"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
